--- a/templates/archive.xlsx
+++ b/templates/archive.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E105BF9-9579-E541-8A7C-2AE2405E6A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C2BD9-C48D-DB4F-9A36-E85879CAEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="5660" windowWidth="32360" windowHeight="11060" xr2:uid="{F594BD6A-EF70-2449-B28F-2D0F86D4C3FB}"/>
+    <workbookView xWindow="2260" yWindow="18000" windowWidth="41340" windowHeight="16160" xr2:uid="{F594BD6A-EF70-2449-B28F-2D0F86D4C3FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="{name}" sheetId="1" r:id="rId1"/>
+    <sheet name="{id}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Comments</t>
   </si>
@@ -77,9 +77,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>accessed:</t>
-  </si>
-  <si>
     <t>source:</t>
   </si>
   <si>
@@ -89,32 +86,38 @@
     <t>{lastmod}</t>
   </si>
   <si>
-    <t>{col3}</t>
-  </si>
-  <si>
-    <t>{col1:linked}</t>
-  </si>
-  <si>
-    <t>{col2:linked}</t>
-  </si>
-  <si>
     <t>{url:linked}</t>
   </si>
   <si>
-    <t>Archives / {archive_name}</t>
-  </si>
-  <si>
-    <t>{count}</t>
-  </si>
-  <si>
-    <t>{sum}</t>
+    <t>{col[0]:linked}</t>
+  </si>
+  <si>
+    <t>{col[1]:linked}</t>
+  </si>
+  <si>
+    <t>{col[2]}</t>
+  </si>
+  <si>
+    <t>{rollup:sum}</t>
+  </si>
+  <si>
+    <t>{rollup:rows}</t>
+  </si>
+  <si>
+    <t>Archives / {id}</t>
+  </si>
+  <si>
+    <t>last changed:</t>
+  </si>
+  <si>
+    <t>{col}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +195,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -219,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,24 +293,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,21 +314,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -392,14 +380,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -756,20 +750,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="26"/>
+      <c r="A1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -790,55 +784,55 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="1"/>
@@ -862,56 +856,56 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -932,84 +926,104 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="7"/>
+      <c r="D7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1063,35 +1077,35 @@
       <c r="AE8" s="1"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
+      <c r="A9" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>23</v>
+      <c r="E9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>

--- a/templates/archive.xlsx
+++ b/templates/archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/alexweb/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C2BD9-C48D-DB4F-9A36-E85879CAEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6AED1-D55B-634F-9B7F-D12978099472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="18000" windowWidth="41340" windowHeight="16160" xr2:uid="{F594BD6A-EF70-2449-B28F-2D0F86D4C3FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Comments</t>
   </si>
@@ -107,10 +107,22 @@
     <t>Archives / {id}</t>
   </si>
   <si>
-    <t>last changed:</t>
-  </si>
-  <si>
     <t>{col}</t>
+  </si>
+  <si>
+    <t>{edit:added}</t>
+  </si>
+  <si>
+    <t>{edit:changed}</t>
+  </si>
+  <si>
+    <t>{refmod}</t>
+  </si>
+  <si>
+    <t>ref. version:</t>
+  </si>
+  <si>
+    <t>version:</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +238,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE5E5E5"/>
         <bgColor rgb="FFE5E5E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -394,6 +418,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:L9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,7 +867,9 @@
       <c r="L3" s="4"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -859,14 +891,17 @@
       <c r="A4" s="20"/>
       <c r="B4" s="16"/>
       <c r="C4" s="28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -874,7 +909,9 @@
       <c r="L4" s="17"/>
       <c r="M4" s="16"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -995,34 +1032,34 @@
         <v>19</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
